--- a/Equip_E/Data/dicionario de variables.xlsx
+++ b/Equip_E/Data/dicionario de variables.xlsx
@@ -1,275 +1,307 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>tipo de dato</t>
-  </si>
-  <si>
-    <t>cat/num</t>
-  </si>
-  <si>
-    <t>descripción</t>
-  </si>
-  <si>
-    <t>apartment_id</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>categórica</t>
-  </si>
-  <si>
-    <t>Identificación del alojamiento turístico</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>Nombre del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Descripción detallada del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>host_id</t>
-  </si>
-  <si>
-    <t>Número de identificación de la persona que pone a disposición un apartamento turístico.</t>
-  </si>
-  <si>
-    <t>neighbourhood_name</t>
-  </si>
-  <si>
-    <t>Nombre del barrio donde se encuentra el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>neighbourhood_district</t>
-  </si>
-  <si>
-    <t>Nombre del distrito donde se encuentra un alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>Tipo de alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>accommodates</t>
-  </si>
-  <si>
-    <t>numérica</t>
-  </si>
-  <si>
-    <t>Capacidad del apartamento (en personas)</t>
-  </si>
-  <si>
-    <t>bathrooms</t>
-  </si>
-  <si>
-    <t>Número de cuartos de baño disponibles en el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>bedrooms</t>
-  </si>
-  <si>
-    <t>Número de habitaciones disponibles en el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>beds</t>
-  </si>
-  <si>
-    <t>float64</t>
-  </si>
-  <si>
-    <t>Cantidad de camas disponibles en el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>amenities_list</t>
-  </si>
-  <si>
-    <t>Lista de comodidades que presenta el alojamiento turístico</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>Precio del alojamiento turístico en euros.</t>
-  </si>
-  <si>
-    <t>minimum_nights</t>
-  </si>
-  <si>
-    <t>Número de noches máximas permitidas en el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>maximum_nights</t>
-  </si>
-  <si>
-    <t>Número de noches mínimas a alquilar del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>has_availability</t>
-  </si>
-  <si>
-    <t>Disponibilidad para reservar el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>availability_30</t>
-  </si>
-  <si>
-    <t>Número de días disponibles del alojamiento turístico en un plazo de 30 días (desde la fecha de extracción).</t>
-  </si>
-  <si>
-    <t>availability_60</t>
-  </si>
-  <si>
-    <t>Número de días disponibles del alojamiento turístico en un plazo de 60días (desde la fecha de extracción).</t>
-  </si>
-  <si>
-    <t>availability_90</t>
-  </si>
-  <si>
-    <t>Número de días disponibles del alojamiento turístico en un plazo de 90 días (desde la fecha de extracción).</t>
-  </si>
-  <si>
-    <t>availability_365</t>
-  </si>
-  <si>
-    <t>Número de días disponibles del alojamiento turístico en un plazo de 365 días (desde la fecha de extracción).</t>
-  </si>
-  <si>
-    <t>number_of_reviews</t>
-  </si>
-  <si>
-    <t>Número de comentarios que tiene el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>first_review_date</t>
-  </si>
-  <si>
-    <t>Fecha del primer comentario del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>last_review_date</t>
-  </si>
-  <si>
-    <t>Fecha del último comentario del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_rating</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 100 dada por los usuarios del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_accuracy</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre la precisión de los detalles del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_cleanliness</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre las condiciones higiénicas del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_checkin</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre el momento de entrada al alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_communication</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre la comunicación del propietario con los usuarios del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_location</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre la zona donde se encuentra el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>review_scores_value</t>
-  </si>
-  <si>
-    <t>Puntuación de 0 a 10 sobre la evaluación del alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>is_instant_bookable</t>
-  </si>
-  <si>
-    <t>Si puede reservarse sin necesidad de revisión por parte del propietario.</t>
-  </si>
-  <si>
-    <t>reviews_per_month</t>
-  </si>
-  <si>
-    <t>Número de comentarios que recibe el alojamiento turístico al mes.</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>País en el que se encuentra el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Ciudad en la que se encuentra el alojamiento turístico.</t>
-  </si>
-  <si>
-    <t>insert_date</t>
-  </si>
-  <si>
-    <t>Fecha de extracción de la información.</t>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo de dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat/num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apartment_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categórica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación del alojamiento turístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción detallada del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de identificación de la persona que pone a disposición un apartamento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbourhood_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del barrio donde se encuentra el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbourhood_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del distrito donde se encuentra un alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accommodates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numérica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad del apartamento (en personas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de cuartos de baño disponibles en el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de habitaciones disponibles en el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de camas disponibles en el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amenities_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de comodidades que presenta el alojamiento turístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio del alojamiento turístico en euros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de noches máximas permitidas en el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum_nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de noches mínimas a alquilar del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad para reservar el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de días disponibles del alojamiento turístico en un plazo de 30 días (desde la fecha de extracción).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de días disponibles del alojamiento turístico en un plazo de 60días (desde la fecha de extracción).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de días disponibles del alojamiento turístico en un plazo de 90 días (desde la fecha de extracción).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability_365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de días disponibles del alojamiento turístico en un plazo de 365 días (desde la fecha de extracción).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de comentarios que tiene el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_review_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha del primer comentario del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_review_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha del último comentario del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 100 dada por los usuarios del alojamiento turístico. Es el general.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre la precisión de los detalles del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_cleanliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre las condiciones higiénicas del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_checkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre el momento de entrada al alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre la comunicación del propietario con los usuarios del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre la zona donde se encuentra el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review_scores_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación de 0 a 10 sobre la evaluación del alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_instant_bookable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si puede reservarse sin necesidad de revisión por parte del propietario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviews_per_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de comentarios que recibe el alojamiento turístico al mes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">País en el que se encuentra el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad en la que se encuentra el alojamiento turístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de extracción de la información.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF434343"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,92 +309,212 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF0B5394"/>
+        <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
+        <patternFill>
           <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6FA8DC"/>
+        <patternFill>
           <bgColor rgb="FF6FA8DC"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
+        <patternFill>
           <bgColor rgb="FFB4A7D6"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4A7D6"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF6D9EEB"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0B5394"/>
+      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6FA8DC"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF434343"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="256320" y="7667640"/>
+          <a:ext cx="8921160" cy="1257480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,94 +525,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -468,33 +616,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -507,13 +646,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -523,15 +656,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -539,7 +670,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -547,11 +677,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -560,22 +690,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="81.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="81"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -603,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -627,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -641,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -669,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -683,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -697,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -711,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -725,7 +858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -739,7 +872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -751,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -765,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -779,7 +912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -793,7 +926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -807,7 +940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -821,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -835,7 +968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -849,7 +982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -863,7 +996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -877,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -891,7 +1024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -905,7 +1038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -919,7 +1052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -933,7 +1066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -947,7 +1080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -961,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -975,7 +1108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -989,7 +1122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1003,7 +1136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -1017,7 +1150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -1031,7 +1164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1045,7 +1178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1059,7 +1192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -1075,35 +1208,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"int64"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"float64"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"object"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"categórica"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"numérica"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="C2:C36">
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="C2:C36" type="list">
       <formula1>"numérica,categórica"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Equip_E/Data/dicionario de variables.xlsx
+++ b/Equip_E/Data/dicionario de variables.xlsx
@@ -20,7 +20,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Descripción y características
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Anuncios de inmuebles de alquiler turístico en las principales plataformas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Las características de este dataset son las siguientes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Volumen estimado: 25000 registros cada 7 días
+Histórico: disponible desde 2017-01</t>
+    </r>
+  </si>
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -266,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,6 +337,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -352,16 +416,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,13 +552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>256320</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>462960</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -500,8 +572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="256320" y="7667640"/>
-          <a:ext cx="8921160" cy="1257480"/>
+          <a:off x="256320" y="8681760"/>
+          <a:ext cx="8920800" cy="1257120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,520 +766,531 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B36">
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B37">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"int64"</formula>
     </cfRule>
@@ -1218,7 +1301,7 @@
       <formula>"object"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C36">
+  <conditionalFormatting sqref="C3:C37">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"categórica"</formula>
     </cfRule>
@@ -1227,7 +1310,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="C2:C36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="C3:C37" type="list">
       <formula1>"numérica,categórica"</formula1>
       <formula2>0</formula2>
     </dataValidation>
